--- a/IO/【底稿】.xlsx
+++ b/IO/【底稿】.xlsx
@@ -1201,7 +1201,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>182315IDC00158</t>
+          <t>182315IDC00077</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1216,16 +1216,11 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>盐城移动</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>CDNYANCCM2</t>
+          <t>盐城3移动</t>
         </is>
       </c>
       <c r="N14" s="3" t="n">
-        <v>44835</v>
+        <v>43497</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1242,465 +1237,461 @@
         </is>
       </c>
       <c r="T14" t="inlineStr">
-        <is>
-          <t>计费确认单未包含机柜IP，放在临时合同计提。【BEC新建】盐城移动新建2022-10-1节点正式上线  (YANC3CM)：IPV4：120.195.37.0/24；IPV6:2409:8C20:8AB1:28::/64</t>
-        </is>
-      </c>
-      <c r="X14" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="Y14" s="3" t="n">
-        <v>45077</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>移动</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>华东-吴蕊</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>江苏</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>王阳</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>中国移动通信集团江苏有限公司盐城分公司</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>盐城移动</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>机架</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>182315IDC00158</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>CDN机架</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>盐城移动</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>盐城移动</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>CDNYANCCM</t>
-        </is>
-      </c>
-      <c r="N15" s="3" t="n">
-        <v>43497</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>10A</t>
-        </is>
-      </c>
-      <c r="P15" t="n">
-        <v>4300</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>7</v>
-      </c>
-      <c r="R15" t="n">
-        <v>30100</v>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>202305</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>YANCCM2F-H-02、YANCCM2F-H-03、YANCCM2F-H-04、YANCCM2F-H-06、YANCCM2F-H-07、YANCCM2F-H-08</t>
-        </is>
-      </c>
-      <c r="X15" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="Y15" s="3" t="n">
-        <v>45077</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>移动</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>华东-吴蕊</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>江苏</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>王阳</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>中国移动通信集团江苏有限公司盐城分公司</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>盐城移动</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>机架</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>182315IDC00158</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>CDN机架</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>盐城移动</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>盐城移动</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>CDNYANCCM</t>
-        </is>
-      </c>
-      <c r="N16" s="3" t="n">
-        <v>44713</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>10A</t>
-        </is>
-      </c>
-      <c r="P16" t="n">
-        <v>4300</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>-6</v>
-      </c>
-      <c r="R16" t="n">
-        <v>-25800</v>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>202305</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>（剩余YANCCM2F-H-05转为BEC使用，编号更新为BECYANCCM2F-H-05）YANCCM2F-H-02、YANCCM2F-H-03、YANCCM2F-H-04、YANCCM2F-H-06、YANCCM2F-H-07、YANCCM2F-H-08</t>
-        </is>
-      </c>
-      <c r="X16" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="Y16" s="3" t="n">
-        <v>45077</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>移动</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>华东-吴蕊</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>江苏</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>王阳</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>中国移动通信集团江苏有限公司盐城分公司</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>盐城移动</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>带宽</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>182315IDC00077</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>CDN IP</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>盐城移动</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>盐城3移动</t>
-        </is>
-      </c>
-      <c r="N17" s="3" t="n">
-        <v>43497</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>256</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>202305</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
         <is>
           <t>2022.5带宽退租后IP任然未收费。合同约定送288个IP，使用288个，均免费；免费提供64位的IPv6地址，超出部分的IPv6地址按照0元/个/月收取
 36.156.94.0/24(CDN转让BEC使用)
 2409:8c20:8ab1:0001::/64(CDN转让BEC使用)</t>
         </is>
       </c>
-      <c r="X17" s="3" t="n">
+      <c r="X14" s="3" t="n">
         <v>44927</v>
       </c>
-      <c r="Y17" s="3" t="n">
+      <c r="Y14" s="3" t="n">
         <v>45107</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>移动</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>华东-吴蕊</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>江苏</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>王阳</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>中国移动通信集团江苏有限公司盐城分公司</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>盐城移动</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>带宽</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>182315IDC00077</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>CDN IP</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>盐城移动</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>盐城3移动</t>
         </is>
       </c>
-      <c r="N18" s="3" t="n">
+      <c r="N15" s="3" t="n">
         <v>43497</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P15" t="n">
         <v>0</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q15" t="n">
         <v>32</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R15" t="n">
         <v>0</v>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>202305</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t xml:space="preserve">2022.5带宽退租后IP任然未收费。合同约定送288个IP，使用288个，均免费：223.111.146.32/27
 </t>
         </is>
       </c>
-      <c r="X18" s="3" t="n">
+      <c r="X15" s="3" t="n">
         <v>44927</v>
       </c>
-      <c r="Y18" s="3" t="n">
+      <c r="Y15" s="3" t="n">
         <v>45107</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>移动</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>华东-吴蕊</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>江苏</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>王阳</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>中国移动通信集团江苏有限公司盐城分公司</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>盐城移动</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>带宽</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>182315IDC00077</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>CDN IP</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>盐城移动</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>盐城3移动</t>
         </is>
       </c>
-      <c r="N19" s="3" t="n">
+      <c r="N16" s="3" t="n">
         <v>43497</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P16" t="n">
         <v>0</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q16" t="n">
         <v>256</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R16" t="n">
         <v>0</v>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>202306</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>2022.5带宽退租后IP任然未收费。合同约定送288个IP，使用288个，均免费；免费提供64位的IPv6地址，超出部分的IPv6地址按照0元/个/月收取
 36.156.94.0/24(CDN转让BEC使用)
 2409:8c20:8ab1:0001::/64(CDN转让BEC使用)</t>
         </is>
       </c>
+      <c r="X16" s="3" t="n">
+        <v>44927</v>
+      </c>
+      <c r="Y16" s="3" t="n">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>华东-吴蕊</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>江苏</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>王阳</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>中国移动通信集团江苏有限公司盐城分公司</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>182315IDC00077</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>CDN IP</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>盐城3移动</t>
+        </is>
+      </c>
+      <c r="N17" s="3" t="n">
+        <v>43497</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>32</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>202306</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2022.5带宽退租后IP任然未收费。合同约定送288个IP，使用288个，均免费：223.111.146.32/27
+</t>
+        </is>
+      </c>
+      <c r="X17" s="3" t="n">
+        <v>44927</v>
+      </c>
+      <c r="Y17" s="3" t="n">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>华东-吴蕊</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>江苏</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>王阳</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>中国移动通信集团江苏有限公司盐城分公司</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>182315IDC00158</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>CDN IP</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>CDNYANCCM2</t>
+        </is>
+      </c>
+      <c r="N18" s="3" t="n">
+        <v>44835</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>256</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>202305</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>计费确认单未包含机柜IP，放在临时合同计提。【BEC新建】盐城移动新建2022-10-1节点正式上线  (YANC3CM)：IPV4：120.195.37.0/24；IPV6:2409:8C20:8AB1:28::/64</t>
+        </is>
+      </c>
+      <c r="X18" s="3" t="n">
+        <v>44927</v>
+      </c>
+      <c r="Y18" s="3" t="n">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>华东-吴蕊</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>江苏</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>王阳</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>中国移动通信集团江苏有限公司盐城分公司</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>机架</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>182315IDC00158</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>CDN机架</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>CDNYANCCM</t>
+        </is>
+      </c>
+      <c r="N19" s="3" t="n">
+        <v>43497</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>10A</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>4300</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>7</v>
+      </c>
+      <c r="R19" t="n">
+        <v>30100</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>202305</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>YANCCM2F-H-02、YANCCM2F-H-03、YANCCM2F-H-04、YANCCM2F-H-06、YANCCM2F-H-07、YANCCM2F-H-08</t>
+        </is>
+      </c>
       <c r="X19" s="3" t="n">
         <v>44927</v>
       </c>
       <c r="Y19" s="3" t="n">
-        <v>45107</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="20">
@@ -1736,17 +1727,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>带宽</t>
+          <t>机架</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>182315IDC00077</t>
+          <t>182315IDC00158</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>CDN IP</t>
+          <t>CDN机架</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1756,37 +1747,46 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>盐城3移动</t>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>CDNYANCCM</t>
         </is>
       </c>
       <c r="N20" s="3" t="n">
-        <v>43497</v>
+        <v>44713</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>10A</t>
+        </is>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="Q20" t="n">
-        <v>32</v>
+        <v>-6</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>-25800</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>202306</t>
+          <t>202305</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t xml:space="preserve">2022.5带宽退租后IP任然未收费。合同约定送288个IP，使用288个，均免费：223.111.146.32/27
-</t>
+          <t>（剩余YANCCM2F-H-05转为BEC使用，编号更新为BECYANCCM2F-H-05）YANCCM2F-H-02、YANCCM2F-H-03、YANCCM2F-H-04、YANCCM2F-H-06、YANCCM2F-H-07、YANCCM2F-H-08</t>
         </is>
       </c>
       <c r="X20" s="3" t="n">
         <v>44927</v>
       </c>
       <c r="Y20" s="3" t="n">
-        <v>45107</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="21">
@@ -1987,604 +1987,604 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
+          <t>182315IDC00077</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>CDN带宽</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>盐城</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>盐城3移动</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>CDNYANCCM2</t>
+        </is>
+      </c>
+      <c r="N25" s="3" t="n">
+        <v>44835</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>300G</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>6740</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>120.74</v>
+      </c>
+      <c r="R25" t="n">
+        <v>813787.6</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>202305</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>100G+200G分两组核算，需根据各自实际流量分别计算保底【BEC新建】300G，保底120G。计提参考值</t>
+        </is>
+      </c>
+      <c r="V25" t="n">
+        <v>120.741</v>
+      </c>
+      <c r="X25" s="3" t="n">
+        <v>44927</v>
+      </c>
+      <c r="Y25" s="3" t="n">
+        <v>45107</v>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>YANC3CM</t>
+        </is>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>300</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>华东-吴蕊</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>江苏</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>王阳</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>中国移动通信集团江苏有限公司盐城分公司</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>182315IDC00077</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>CDN带宽</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>盐城</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>盐城3移动</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>CDNYANCCM2</t>
+        </is>
+      </c>
+      <c r="N26" s="3" t="n">
+        <v>44835</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>300G</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>6740</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>120.1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>809474</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>202306</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>100G+200G分两组核算，需根据各自实际流量分别计算保底【BEC新建】300G，保底120G。计提参考值</t>
+        </is>
+      </c>
+      <c r="V26" t="n">
+        <v>120.101051331</v>
+      </c>
+      <c r="X26" s="3" t="n">
+        <v>44927</v>
+      </c>
+      <c r="Y26" s="3" t="n">
+        <v>45107</v>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>YANC3CM</t>
+        </is>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>300</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>华东-吴蕊</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>江苏</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>王阳</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>中国移动通信集团江苏有限公司盐城分公司</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>182315IDC00077</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>CDN带宽</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>盐城</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>盐城3移动</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>CDNYANCCM2</t>
+        </is>
+      </c>
+      <c r="N27" s="3" t="n">
+        <v>44835</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>300G</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>6740</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>46.10000000000001</v>
+      </c>
+      <c r="R27" t="n">
+        <v>310714</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>202305</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>补提5月盐城3移动带宽结算差异，结算166.84G，提120.74G，补46.1G(更新流量)</t>
+        </is>
+      </c>
+      <c r="V27" t="n">
+        <v>120.741</v>
+      </c>
+      <c r="W27" t="n">
+        <v>166.84</v>
+      </c>
+      <c r="X27" s="3" t="n">
+        <v>44927</v>
+      </c>
+      <c r="Y27" s="3" t="n">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>华东-吴蕊</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>江苏</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>王阳</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>中国移动通信集团江苏有限公司盐城分公司</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>182315IDC00077</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>CDN带宽</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>盐城</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>盐城3移动</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>CDNYANCCM2</t>
+        </is>
+      </c>
+      <c r="N28" s="3" t="n">
+        <v>44835</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>300G</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>6740</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>9.110000000000014</v>
+      </c>
+      <c r="R28" t="n">
+        <v>61401.4</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>202306</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>补提6月盐城3移动带宽结算差异，结算129.21G，提120.1G，补9.11G</t>
+        </is>
+      </c>
+      <c r="V28" t="n">
+        <v>120.101051331</v>
+      </c>
+      <c r="W28" t="n">
+        <v>129.21</v>
+      </c>
+      <c r="X28" s="3" t="n">
+        <v>44927</v>
+      </c>
+      <c r="Y28" s="3" t="n">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>华东-吴蕊</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>江苏</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>王阳</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>中国移动通信集团江苏有限公司盐城分公司</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
           <t>182315IDC00158</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>CDN带宽</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>盐城</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>盐城移动</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="N29" t="inlineStr">
         <is>
           <t>2019/2/1
 2022/4/30</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>240G
 -40G</t>
         </is>
       </c>
-      <c r="P25" t="n">
+      <c r="P29" t="n">
         <v>6740</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="Q29" t="n">
         <v>115.62</v>
       </c>
-      <c r="R25" t="n">
+      <c r="R29" t="n">
         <v>779278.8</v>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="S29" t="inlineStr">
         <is>
           <t>202305</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
+      <c r="T29" t="inlineStr">
         <is>
           <t>2022.6该节点转为BEC使用。
 2022/4/30退租40G，退租后保底80G,10M</t>
         </is>
       </c>
-      <c r="V25" t="n">
+      <c r="V29" t="n">
         <v>115.615531921</v>
       </c>
-      <c r="X25" s="3" t="n">
+      <c r="X29" s="3" t="n">
         <v>44927</v>
       </c>
-      <c r="Y25" s="3" t="n">
+      <c r="Y29" s="3" t="n">
         <v>45077</v>
       </c>
-      <c r="Z25" t="inlineStr">
+      <c r="Z29" t="inlineStr">
         <is>
           <t>YANCCM</t>
         </is>
       </c>
-      <c r="AA25" t="n">
+      <c r="AA29" t="n">
         <v>0.4</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AB29" t="n">
         <v>200</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AC29" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>移动</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>华东-吴蕊</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>江苏</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>王阳</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>中国移动通信集团江苏有限公司盐城分公司</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>盐城移动</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>带宽</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>182315IDC00158</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>CDN带宽</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>盐城</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>盐城移动</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="N30" t="inlineStr">
         <is>
           <t>2019/2/1
 2022/4/30</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>240G
 -40G</t>
         </is>
       </c>
-      <c r="P26" t="n">
-        <v>6740</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.8399999999999892</v>
-      </c>
-      <c r="R26" t="n">
-        <v>5661.6</v>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>202305</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>补提5月盐城移动带宽结算差异，结算116.46G，提115.62G，补0.84G</t>
-        </is>
-      </c>
-      <c r="V26" t="n">
-        <v>115.615531921</v>
-      </c>
-      <c r="W26" t="n">
-        <v>117.3</v>
-      </c>
-      <c r="X26" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="Y26" s="3" t="n">
-        <v>45077</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>移动</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>华东-吴蕊</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>江苏</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>王阳</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>中国移动通信集团江苏有限公司盐城分公司</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>盐城移动</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>带宽</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>182315IDC00077</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>CDN带宽</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>盐城</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>盐城3移动</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>CDNYANCCM2</t>
-        </is>
-      </c>
-      <c r="N27" s="3" t="n">
-        <v>44835</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>300G</t>
-        </is>
-      </c>
-      <c r="P27" t="n">
-        <v>6740</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>120.74</v>
-      </c>
-      <c r="R27" t="n">
-        <v>813787.6</v>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>202305</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>100G+200G分两组核算，需根据各自实际流量分别计算保底【BEC新建】300G，保底120G。计提参考值</t>
-        </is>
-      </c>
-      <c r="V27" t="n">
-        <v>120.741</v>
-      </c>
-      <c r="X27" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="Y27" s="3" t="n">
-        <v>45107</v>
-      </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>YANC3CM</t>
-        </is>
-      </c>
-      <c r="AA27" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>300</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>移动</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>华东-吴蕊</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>江苏</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>王阳</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>中国移动通信集团江苏有限公司盐城分公司</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>盐城移动</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>带宽</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>182315IDC00077</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>CDN带宽</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>盐城</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>盐城3移动</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>CDNYANCCM2</t>
-        </is>
-      </c>
-      <c r="N28" s="3" t="n">
-        <v>44835</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>300G</t>
-        </is>
-      </c>
-      <c r="P28" t="n">
-        <v>6740</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>120.1</v>
-      </c>
-      <c r="R28" t="n">
-        <v>809474</v>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>202306</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>100G+200G分两组核算，需根据各自实际流量分别计算保底【BEC新建】300G，保底120G。计提参考值</t>
-        </is>
-      </c>
-      <c r="V28" t="n">
-        <v>120.101051331</v>
-      </c>
-      <c r="X28" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="Y28" s="3" t="n">
-        <v>45107</v>
-      </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>YANC3CM</t>
-        </is>
-      </c>
-      <c r="AA28" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>300</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>移动</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>华东-吴蕊</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>江苏</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>王阳</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>中国移动通信集团江苏有限公司盐城分公司</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>盐城移动</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>带宽</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>182315IDC00077</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>CDN带宽</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>盐城</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>盐城3移动</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>CDNYANCCM2</t>
-        </is>
-      </c>
-      <c r="N29" s="3" t="n">
-        <v>44835</v>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>300G</t>
-        </is>
-      </c>
-      <c r="P29" t="n">
-        <v>6740</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>46.10000000000001</v>
-      </c>
-      <c r="R29" t="n">
-        <v>310714</v>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>202305</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>补提5月盐城3移动带宽结算差异，结算166.84G，提120.74G，补46.1G(更新流量)</t>
-        </is>
-      </c>
-      <c r="V29" t="n">
-        <v>120.741</v>
-      </c>
-      <c r="W29" t="n">
-        <v>166.84</v>
-      </c>
-      <c r="X29" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="Y29" s="3" t="n">
-        <v>45107</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>移动</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>华东-吴蕊</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>江苏</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>王阳</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>中国移动通信集团江苏有限公司盐城分公司</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>盐城移动</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>带宽</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>182315IDC00077</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>CDN带宽</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>盐城</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>盐城3移动</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>CDNYANCCM2</t>
-        </is>
-      </c>
-      <c r="N30" s="3" t="n">
-        <v>44835</v>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>300G</t>
-        </is>
-      </c>
       <c r="P30" t="n">
         <v>6740</v>
       </c>
       <c r="Q30" t="n">
-        <v>9.110000000000014</v>
+        <v>0.8399999999999892</v>
       </c>
       <c r="R30" t="n">
-        <v>61401.4</v>
+        <v>5661.6</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>202306</t>
+          <t>202305</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>补提6月盐城3移动带宽结算差异，结算129.21G，提120.1G，补9.11G</t>
+          <t>补提5月盐城移动带宽结算差异，结算116.46G，提115.62G，补0.84G</t>
         </is>
       </c>
       <c r="V30" t="n">
-        <v>120.101051331</v>
+        <v>115.615531921</v>
       </c>
       <c r="W30" t="n">
-        <v>129.21</v>
+        <v>117.3</v>
       </c>
       <c r="X30" s="3" t="n">
         <v>44927</v>
       </c>
       <c r="Y30" s="3" t="n">
-        <v>45107</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="31"/>

--- a/IO/【底稿】.xlsx
+++ b/IO/【底稿】.xlsx
@@ -1201,7 +1201,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>182315IDC00077</t>
+          <t>182315IDC00158</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1216,11 +1216,16 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>盐城3移动</t>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>CDNYANCCM2</t>
         </is>
       </c>
       <c r="N14" s="3" t="n">
-        <v>43497</v>
+        <v>44835</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1237,556 +1242,551 @@
         </is>
       </c>
       <c r="T14" t="inlineStr">
+        <is>
+          <t>计费确认单未包含机柜IP，放在临时合同计提。【BEC新建】盐城移动新建2022-10-1节点正式上线  (YANC3CM)：IPV4：120.195.37.0/24；IPV6:2409:8C20:8AB1:28::/64</t>
+        </is>
+      </c>
+      <c r="X14" s="3" t="n">
+        <v>44927</v>
+      </c>
+      <c r="Y14" s="3" t="n">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>华东-吴蕊</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>江苏</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>王阳</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>中国移动通信集团江苏有限公司盐城分公司</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>机架</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>182315IDC00158</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>CDN机架</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>CDNYANCCM</t>
+        </is>
+      </c>
+      <c r="N15" s="3" t="n">
+        <v>43497</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>10A</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>4300</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>7</v>
+      </c>
+      <c r="R15" t="n">
+        <v>30100</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>202305</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>YANCCM2F-H-02、YANCCM2F-H-03、YANCCM2F-H-04、YANCCM2F-H-06、YANCCM2F-H-07、YANCCM2F-H-08</t>
+        </is>
+      </c>
+      <c r="X15" s="3" t="n">
+        <v>44927</v>
+      </c>
+      <c r="Y15" s="3" t="n">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>华东-吴蕊</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>江苏</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>王阳</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>中国移动通信集团江苏有限公司盐城分公司</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>机架</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>182315IDC00158</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>CDN机架</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>CDNYANCCM</t>
+        </is>
+      </c>
+      <c r="N16" s="3" t="n">
+        <v>44713</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>10A</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>4300</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>-6</v>
+      </c>
+      <c r="R16" t="n">
+        <v>-25800</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>202305</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>（剩余YANCCM2F-H-05转为BEC使用，编号更新为BECYANCCM2F-H-05）YANCCM2F-H-02、YANCCM2F-H-03、YANCCM2F-H-04、YANCCM2F-H-06、YANCCM2F-H-07、YANCCM2F-H-08</t>
+        </is>
+      </c>
+      <c r="X16" s="3" t="n">
+        <v>44927</v>
+      </c>
+      <c r="Y16" s="3" t="n">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>华东-吴蕊</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>江苏</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>王阳</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>中国移动通信集团江苏有限公司盐城分公司</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>182315IDC00077</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>CDN IP</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>盐城3移动</t>
+        </is>
+      </c>
+      <c r="N17" s="3" t="n">
+        <v>43497</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>256</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>202305</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
         <is>
           <t>2022.5带宽退租后IP任然未收费。合同约定送288个IP，使用288个，均免费；免费提供64位的IPv6地址，超出部分的IPv6地址按照0元/个/月收取
 36.156.94.0/24(CDN转让BEC使用)
 2409:8c20:8ab1:0001::/64(CDN转让BEC使用)</t>
         </is>
       </c>
-      <c r="X14" s="3" t="n">
+      <c r="X17" s="3" t="n">
         <v>44927</v>
       </c>
-      <c r="Y14" s="3" t="n">
+      <c r="Y17" s="3" t="n">
         <v>45107</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>移动</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>华东-吴蕊</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>江苏</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>王阳</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>中国移动通信集团江苏有限公司盐城分公司</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>盐城移动</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>带宽</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>182315IDC00077</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>CDN IP</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>盐城移动</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>盐城3移动</t>
         </is>
       </c>
-      <c r="N15" s="3" t="n">
+      <c r="N18" s="3" t="n">
         <v>43497</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P18" t="n">
         <v>0</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q18" t="n">
         <v>32</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R18" t="n">
         <v>0</v>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>202305</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t xml:space="preserve">2022.5带宽退租后IP任然未收费。合同约定送288个IP，使用288个，均免费：223.111.146.32/27
 </t>
         </is>
       </c>
-      <c r="X15" s="3" t="n">
+      <c r="X18" s="3" t="n">
         <v>44927</v>
       </c>
-      <c r="Y15" s="3" t="n">
+      <c r="Y18" s="3" t="n">
         <v>45107</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>移动</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>华东-吴蕊</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>江苏</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>王阳</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>中国移动通信集团江苏有限公司盐城分公司</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>盐城移动</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>带宽</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>182315IDC00077</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>CDN IP</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>盐城移动</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>盐城3移动</t>
         </is>
       </c>
-      <c r="N16" s="3" t="n">
+      <c r="N19" s="3" t="n">
         <v>43497</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P19" t="n">
         <v>0</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q19" t="n">
         <v>256</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R19" t="n">
         <v>0</v>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>202306</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="T19" t="inlineStr">
         <is>
           <t>2022.5带宽退租后IP任然未收费。合同约定送288个IP，使用288个，均免费；免费提供64位的IPv6地址，超出部分的IPv6地址按照0元/个/月收取
 36.156.94.0/24(CDN转让BEC使用)
 2409:8c20:8ab1:0001::/64(CDN转让BEC使用)</t>
         </is>
       </c>
-      <c r="X16" s="3" t="n">
+      <c r="X19" s="3" t="n">
         <v>44927</v>
       </c>
-      <c r="Y16" s="3" t="n">
+      <c r="Y19" s="3" t="n">
         <v>45107</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>移动</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>华东-吴蕊</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>江苏</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>王阳</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>中国移动通信集团江苏有限公司盐城分公司</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>盐城移动</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>带宽</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>182315IDC00077</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>CDN IP</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>盐城移动</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>盐城3移动</t>
         </is>
       </c>
-      <c r="N17" s="3" t="n">
+      <c r="N20" s="3" t="n">
         <v>43497</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P20" t="n">
         <v>0</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q20" t="n">
         <v>32</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R20" t="n">
         <v>0</v>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>202306</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="T20" t="inlineStr">
         <is>
           <t xml:space="preserve">2022.5带宽退租后IP任然未收费。合同约定送288个IP，使用288个，均免费：223.111.146.32/27
 </t>
         </is>
       </c>
-      <c r="X17" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="Y17" s="3" t="n">
-        <v>45107</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>移动</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>华东-吴蕊</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>江苏</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>王阳</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>中国移动通信集团江苏有限公司盐城分公司</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>盐城移动</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>带宽</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>182315IDC00158</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>CDN IP</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>盐城移动</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>盐城移动</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>CDNYANCCM2</t>
-        </is>
-      </c>
-      <c r="N18" s="3" t="n">
-        <v>44835</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>256</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>202305</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>计费确认单未包含机柜IP，放在临时合同计提。【BEC新建】盐城移动新建2022-10-1节点正式上线  (YANC3CM)：IPV4：120.195.37.0/24；IPV6:2409:8C20:8AB1:28::/64</t>
-        </is>
-      </c>
-      <c r="X18" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="Y18" s="3" t="n">
-        <v>45077</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>移动</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>华东-吴蕊</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>江苏</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>王阳</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>中国移动通信集团江苏有限公司盐城分公司</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>盐城移动</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>机架</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>182315IDC00158</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>CDN机架</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>盐城移动</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>盐城移动</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>CDNYANCCM</t>
-        </is>
-      </c>
-      <c r="N19" s="3" t="n">
-        <v>43497</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>10A</t>
-        </is>
-      </c>
-      <c r="P19" t="n">
-        <v>4300</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>7</v>
-      </c>
-      <c r="R19" t="n">
-        <v>30100</v>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>202305</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>YANCCM2F-H-02、YANCCM2F-H-03、YANCCM2F-H-04、YANCCM2F-H-06、YANCCM2F-H-07、YANCCM2F-H-08</t>
-        </is>
-      </c>
-      <c r="X19" s="3" t="n">
-        <v>44927</v>
-      </c>
-      <c r="Y19" s="3" t="n">
-        <v>45077</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>移动</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>华东-吴蕊</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>江苏</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>王阳</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>中国移动通信集团江苏有限公司盐城分公司</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>盐城移动</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>机架</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>182315IDC00158</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>CDN机架</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>盐城移动</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>盐城移动</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>CDNYANCCM</t>
-        </is>
-      </c>
-      <c r="N20" s="3" t="n">
-        <v>44713</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>10A</t>
-        </is>
-      </c>
-      <c r="P20" t="n">
-        <v>4300</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>-6</v>
-      </c>
-      <c r="R20" t="n">
-        <v>-25800</v>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>202305</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>（剩余YANCCM2F-H-05转为BEC使用，编号更新为BECYANCCM2F-H-05）YANCCM2F-H-02、YANCCM2F-H-03、YANCCM2F-H-04、YANCCM2F-H-06、YANCCM2F-H-07、YANCCM2F-H-08</t>
-        </is>
-      </c>
       <c r="X20" s="3" t="n">
         <v>44927</v>
       </c>
       <c r="Y20" s="3" t="n">
-        <v>45077</v>
+        <v>45107</v>
       </c>
     </row>
     <row r="21">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>182315IDC00077</t>
+          <t>182315IDC00158</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2002,30 +2002,29 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>盐城3移动</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>CDNYANCCM2</t>
-        </is>
-      </c>
-      <c r="N25" s="3" t="n">
-        <v>44835</v>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2019/2/1
+2022/4/30</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>300G</t>
+          <t>240G
+-40G</t>
         </is>
       </c>
       <c r="P25" t="n">
         <v>6740</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.74</v>
+        <v>115.62</v>
       </c>
       <c r="R25" t="n">
-        <v>813787.6</v>
+        <v>779278.8</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2034,31 +2033,32 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>100G+200G分两组核算，需根据各自实际流量分别计算保底【BEC新建】300G，保底120G。计提参考值</t>
+          <t>2022.6该节点转为BEC使用。
+2022/4/30退租40G，退租后保底80G,10M</t>
         </is>
       </c>
       <c r="V25" t="n">
-        <v>120.741</v>
+        <v>115.615531921</v>
       </c>
       <c r="X25" s="3" t="n">
         <v>44927</v>
       </c>
       <c r="Y25" s="3" t="n">
-        <v>45107</v>
+        <v>45077</v>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>YANC3CM</t>
+          <t>YANCCM</t>
         </is>
       </c>
       <c r="AA25" t="n">
         <v>0.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AC25" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>182315IDC00077</t>
+          <t>182315IDC00158</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2114,63 +2114,51 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>盐城3移动</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>CDNYANCCM2</t>
-        </is>
-      </c>
-      <c r="N26" s="3" t="n">
-        <v>44835</v>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>2019/2/1
+2022/4/30</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>300G</t>
+          <t>240G
+-40G</t>
         </is>
       </c>
       <c r="P26" t="n">
         <v>6740</v>
       </c>
       <c r="Q26" t="n">
-        <v>120.1</v>
+        <v>0.8399999999999892</v>
       </c>
       <c r="R26" t="n">
-        <v>809474</v>
+        <v>5661.6</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>202306</t>
+          <t>202305</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>100G+200G分两组核算，需根据各自实际流量分别计算保底【BEC新建】300G，保底120G。计提参考值</t>
+          <t>补提5月盐城移动带宽结算差异，结算116.46G，提115.62G，补0.84G</t>
         </is>
       </c>
       <c r="V26" t="n">
-        <v>120.101051331</v>
+        <v>115.615531921</v>
+      </c>
+      <c r="W26" t="n">
+        <v>117.3</v>
       </c>
       <c r="X26" s="3" t="n">
         <v>44927</v>
       </c>
       <c r="Y26" s="3" t="n">
-        <v>45107</v>
-      </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>YANC3CM</t>
-        </is>
-      </c>
-      <c r="AA26" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>300</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>120</v>
+        <v>45077</v>
       </c>
     </row>
     <row r="27">
@@ -2246,10 +2234,10 @@
         <v>6740</v>
       </c>
       <c r="Q27" t="n">
-        <v>46.10000000000001</v>
+        <v>120.74</v>
       </c>
       <c r="R27" t="n">
-        <v>310714</v>
+        <v>813787.6</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2258,21 +2246,32 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>补提5月盐城3移动带宽结算差异，结算166.84G，提120.74G，补46.1G(更新流量)</t>
+          <t>100G+200G分两组核算，需根据各自实际流量分别计算保底【BEC新建】300G，保底120G。计提参考值</t>
         </is>
       </c>
       <c r="V27" t="n">
         <v>120.741</v>
       </c>
-      <c r="W27" t="n">
-        <v>166.84</v>
-      </c>
       <c r="X27" s="3" t="n">
         <v>44927</v>
       </c>
       <c r="Y27" s="3" t="n">
         <v>45107</v>
       </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>YANC3CM</t>
+        </is>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>300</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2347,10 +2346,10 @@
         <v>6740</v>
       </c>
       <c r="Q28" t="n">
-        <v>9.110000000000014</v>
+        <v>120.1</v>
       </c>
       <c r="R28" t="n">
-        <v>61401.4</v>
+        <v>809474</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -2359,21 +2358,32 @@
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>补提6月盐城3移动带宽结算差异，结算129.21G，提120.1G，补9.11G</t>
+          <t>100G+200G分两组核算，需根据各自实际流量分别计算保底【BEC新建】300G，保底120G。计提参考值</t>
         </is>
       </c>
       <c r="V28" t="n">
         <v>120.101051331</v>
       </c>
-      <c r="W28" t="n">
-        <v>129.21</v>
-      </c>
       <c r="X28" s="3" t="n">
         <v>44927</v>
       </c>
       <c r="Y28" s="3" t="n">
         <v>45107</v>
       </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>YANC3CM</t>
+        </is>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>300</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2413,7 +2423,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>182315IDC00158</t>
+          <t>182315IDC00077</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2428,29 +2438,30 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>盐城移动</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>2019/2/1
-2022/4/30</t>
-        </is>
+          <t>盐城3移动</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>CDNYANCCM2</t>
+        </is>
+      </c>
+      <c r="N29" s="3" t="n">
+        <v>44835</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>240G
--40G</t>
+          <t>300G</t>
         </is>
       </c>
       <c r="P29" t="n">
         <v>6740</v>
       </c>
       <c r="Q29" t="n">
-        <v>115.62</v>
+        <v>46.10000000000001</v>
       </c>
       <c r="R29" t="n">
-        <v>779278.8</v>
+        <v>310714</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -2459,32 +2470,20 @@
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>2022.6该节点转为BEC使用。
-2022/4/30退租40G，退租后保底80G,10M</t>
+          <t>补提5月盐城3移动带宽结算差异，结算166.84G，提120.74G，补46.1G(更新流量)</t>
         </is>
       </c>
       <c r="V29" t="n">
-        <v>115.615531921</v>
+        <v>120.741</v>
+      </c>
+      <c r="W29" t="n">
+        <v>166.84</v>
       </c>
       <c r="X29" s="3" t="n">
         <v>44927</v>
       </c>
       <c r="Y29" s="3" t="n">
-        <v>45077</v>
-      </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>YANCCM</t>
-        </is>
-      </c>
-      <c r="AA29" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>200</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>80</v>
+        <v>45107</v>
       </c>
     </row>
     <row r="30">
@@ -2525,7 +2524,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>182315IDC00158</t>
+          <t>182315IDC00077</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2540,51 +2539,52 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>盐城移动</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>2019/2/1
-2022/4/30</t>
-        </is>
+          <t>盐城3移动</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>CDNYANCCM2</t>
+        </is>
+      </c>
+      <c r="N30" s="3" t="n">
+        <v>44835</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>240G
--40G</t>
+          <t>300G</t>
         </is>
       </c>
       <c r="P30" t="n">
         <v>6740</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.8399999999999892</v>
+        <v>9.110000000000014</v>
       </c>
       <c r="R30" t="n">
-        <v>5661.6</v>
+        <v>61401.4</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>202305</t>
+          <t>202306</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>补提5月盐城移动带宽结算差异，结算116.46G，提115.62G，补0.84G</t>
+          <t>补提6月盐城3移动带宽结算差异，结算129.21G，提120.1G，补9.11G</t>
         </is>
       </c>
       <c r="V30" t="n">
-        <v>115.615531921</v>
+        <v>120.101051331</v>
       </c>
       <c r="W30" t="n">
-        <v>117.3</v>
+        <v>129.21</v>
       </c>
       <c r="X30" s="3" t="n">
         <v>44927</v>
       </c>
       <c r="Y30" s="3" t="n">
-        <v>45077</v>
+        <v>45107</v>
       </c>
     </row>
     <row r="31"/>
